--- a/biology/Botanique/Boletinellus/Boletinellus.xlsx
+++ b/biology/Botanique/Boletinellus/Boletinellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletinellus est un genre de champignons de la famille des Boletinellaceae. Il était autrefois classé dans la famille des Boletinellaceae, mais les recherches phylogénétiques récentes[Quand ?][1][réf. incomplète] ont réintégré le genre dans la famille des Boletaceae.[réf. nécessaire]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletinellus est un genre de champignons de la famille des Boletinellaceae. Il était autrefois classé dans la famille des Boletinellaceae, mais les recherches phylogénétiques récentes[Quand ?][réf. incomplète] ont réintégré le genre dans la famille des Boletaceae.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletinellus Murrill, 1909
 </t>
@@ -542,7 +556,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuticule sèche, généralement glabre mais parfois finement tomenteuse, une texture douce. Chair jaunâtre pâle, rarement cyanescente. Hyménium tubulé, très décurrent et avec une orientation radiale bolétinoïde, parfois sublamellé,
 jaune terne, puis cyanescent brunâtre. Stipe latéral ou excentrique, très rarement près du centre, sec, essentiellement glabre. Sporée brun olive, spores ovoïdes à presque globuleuses, lisses.
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Non mycorhizien.
 L'espèce Boletinellus merulioides est très répandue dans l'est de l'Amérique du Nord, où elle est associée à Fraxinus, mais n'est pas mycorhizienne. Elle est au contraire associée à un puceron parasite limité aux racines du Fraxinus. Il y a un rapport bien documenté sur son apparition à Kyushu, au Japon.[réf. nécessaire]
@@ -606,9 +624,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sous-ordre des Sclerodermatineae[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous-ordre des Sclerodermatineae.
  Boletinellus castanellus (Peck) Murrill 1909  &gt; synonyme de Bothia castanella (Peck) Halling, T.J. Baroni &amp; Manfr. Binder 2007
  Boletinellus exiguus (Singer &amp; Digilio) Watling 1997
 Boletinellus  memfioides
@@ -644,16 +664,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 octobre 2013)[3] et Index Fungorum                                      (28 octobre 2013)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 octobre 2013) et Index Fungorum                                      (28 octobre 2013) :
 Boletinellus exiguus (Singer &amp; Digilio) Watling 1997
 Boletinellus glandulosus Peck 1909
 Boletinellus merulioides (Schwein.) Murrill 1909
 Boletinellus monticola (Singer) Watling 1997
 Boletinellus proximus (Singer) Murrill 1946
 Boletinellus rompelii (Pat. &amp; Rick) Watling 1997
-Selon NCBI  (28 octobre 2013)[5] :
+Selon NCBI  (28 octobre 2013) :
 Boletinellus exiguus
 Boletinellus merulioides
 Boletinellus rompelii</t>
